--- a/biology/Médecine/Muscle_troisième_fibulaire/Muscle_troisième_fibulaire.xlsx
+++ b/biology/Médecine/Muscle_troisième_fibulaire/Muscle_troisième_fibulaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Muscle_troisi%C3%A8me_fibulaire</t>
+          <t>Muscle_troisième_fibulaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle troisième fibulaire (ou muscle troisième péronier ou muscle péronier antérieur) est un muscle du membre inférieur situé dans la jambe. Il est contenu dans la loge crurale antérieure.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Muscle_troisi%C3%A8me_fibulaire</t>
+          <t>Muscle_troisième_fibulaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle troisième fibulaire est un petit muscle aplati inconstant qui se situe dans la partie inférieure de la loge crurale antérieure. Il relie la fibula au cinquième métatarsien.
 Il est parfois considéré comme étant une partie du muscle extenseur commun des orteils.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Muscle_troisi%C3%A8me_fibulaire</t>
+          <t>Muscle_troisième_fibulaire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle troisième fibulaire naît de la face médiale de la fibula au niveau de son tiers inférieur, de la partie adjacente de la membrane interosseuse de la jambe et du septum intermusculaire antérieur de la jambe.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Muscle_troisi%C3%A8me_fibulaire</t>
+          <t>Muscle_troisième_fibulaire</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle troisième fibulaire descend vers la cheville dans laquelle il passe dans le rétinaculum des muscles extenseurs du pied  dans une gaine synoviale avec le muscle long extenseur des orteils et où il se porte en avant et en dehors sur le dos du pied sous forme d'un tendon.
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Muscle_troisi%C3%A8me_fibulaire</t>
+          <t>Muscle_troisième_fibulaire</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Terminaison</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le tendon s'insère sur la face dorsale de la base du cinquième métatarsien.
 </t>
@@ -618,7 +638,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Muscle_troisi%C3%A8me_fibulaire</t>
+          <t>Muscle_troisième_fibulaire</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -636,9 +656,11 @@
           <t>Innervation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le muscle troisième fibulaire est innervé par le nerf fibulaire profond[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le muscle troisième fibulaire est innervé par le nerf fibulaire profond.
 </t>
         </is>
       </c>
@@ -649,7 +671,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Muscle_troisi%C3%A8me_fibulaire</t>
+          <t>Muscle_troisième_fibulaire</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -667,7 +689,9 @@
           <t>Vascularisation</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle troisième fibulaire est vascularisé par une branche de l'artère tibiale antérieure.
 </t>
@@ -680,7 +704,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Muscle_troisi%C3%A8me_fibulaire</t>
+          <t>Muscle_troisième_fibulaire</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -698,7 +722,9 @@
           <t>Anatomie fonctionnelle</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est releveur du bord latéral (externe) du pied, pronateur, et fléchisseur dorsal. Il permet donc l'éversion.
 </t>
